--- a/ConvertedEqual/New Hampshire_Converted.xlsx
+++ b/ConvertedEqual/New Hampshire_Converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="283">
   <si>
     <t>Policy/Closing</t>
   </si>
@@ -828,6 +828,42 @@
   </si>
   <si>
     <t>9/29/2020</t>
+  </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/2/2020</t>
+  </si>
+  <si>
+    <t>10/3/2020</t>
+  </si>
+  <si>
+    <t>10/4/2020</t>
+  </si>
+  <si>
+    <t>10/5/2020</t>
+  </si>
+  <si>
+    <t>10/6/2020</t>
+  </si>
+  <si>
+    <t>10/7/2020</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>10/9/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
   </si>
 </sst>
 </file>
@@ -1189,7 +1225,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH221"/>
+  <dimension ref="A1:AH233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1671,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7">
         <v>1</v>
@@ -1686,7 +1722,7 @@
         <v>0.3333333333</v>
       </c>
       <c r="AH7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -3355,7 +3391,7 @@
         <v>1</v>
       </c>
       <c r="AH24">
-        <v>0.2307692307615385</v>
+        <v>0.2499999999916667</v>
       </c>
     </row>
     <row r="25" spans="1:34">
@@ -3459,7 +3495,7 @@
         <v>1</v>
       </c>
       <c r="AH25">
-        <v>0.2307692307615385</v>
+        <v>0.2499999999916667</v>
       </c>
     </row>
     <row r="26" spans="1:34">
@@ -3563,7 +3599,7 @@
         <v>1</v>
       </c>
       <c r="AH26">
-        <v>0.2307692307615385</v>
+        <v>0.2499999999916667</v>
       </c>
     </row>
     <row r="27" spans="1:34">
@@ -3667,7 +3703,7 @@
         <v>1</v>
       </c>
       <c r="AH27">
-        <v>0.2307692307615385</v>
+        <v>0.2499999999916667</v>
       </c>
     </row>
     <row r="28" spans="1:34">
@@ -3771,7 +3807,7 @@
         <v>1</v>
       </c>
       <c r="AH28">
-        <v>0.2307692307615385</v>
+        <v>0.2499999999916667</v>
       </c>
     </row>
     <row r="29" spans="1:34">
@@ -3875,7 +3911,7 @@
         <v>1</v>
       </c>
       <c r="AH29">
-        <v>0.2307692307615385</v>
+        <v>0.2499999999916667</v>
       </c>
     </row>
     <row r="30" spans="1:34">
@@ -3979,7 +4015,7 @@
         <v>1</v>
       </c>
       <c r="AH30">
-        <v>0.2307692307615385</v>
+        <v>0.2499999999916667</v>
       </c>
     </row>
     <row r="31" spans="1:34">
@@ -4083,7 +4119,7 @@
         <v>1</v>
       </c>
       <c r="AH31">
-        <v>0.2307692307615385</v>
+        <v>0.2499999999916667</v>
       </c>
     </row>
     <row r="32" spans="1:34">
@@ -4187,7 +4223,7 @@
         <v>1</v>
       </c>
       <c r="AH32">
-        <v>0.2307692307615385</v>
+        <v>0.2499999999916667</v>
       </c>
     </row>
     <row r="33" spans="1:34">
@@ -4291,7 +4327,7 @@
         <v>1</v>
       </c>
       <c r="AH33">
-        <v>0.2307692307615385</v>
+        <v>0.2499999999916667</v>
       </c>
     </row>
     <row r="34" spans="1:34">
@@ -4395,7 +4431,7 @@
         <v>1</v>
       </c>
       <c r="AH34">
-        <v>0.2307692307615385</v>
+        <v>0.2499999999916667</v>
       </c>
     </row>
     <row r="35" spans="1:34">
@@ -4499,7 +4535,7 @@
         <v>1</v>
       </c>
       <c r="AH35">
-        <v>0.4807692307615384</v>
+        <v>0.4374999999916667</v>
       </c>
     </row>
     <row r="36" spans="1:34">
@@ -4603,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="AH36">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="37" spans="1:34">
@@ -4707,7 +4743,7 @@
         <v>1</v>
       </c>
       <c r="AH37">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="38" spans="1:34">
@@ -4811,7 +4847,7 @@
         <v>1</v>
       </c>
       <c r="AH38">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="39" spans="1:34">
@@ -4915,7 +4951,7 @@
         <v>1</v>
       </c>
       <c r="AH39">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="40" spans="1:34">
@@ -5019,7 +5055,7 @@
         <v>1</v>
       </c>
       <c r="AH40">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="41" spans="1:34">
@@ -5123,7 +5159,7 @@
         <v>1</v>
       </c>
       <c r="AH41">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="42" spans="1:34">
@@ -5227,7 +5263,7 @@
         <v>1</v>
       </c>
       <c r="AH42">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="43" spans="1:34">
@@ -5331,7 +5367,7 @@
         <v>1</v>
       </c>
       <c r="AH43">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="44" spans="1:34">
@@ -5435,7 +5471,7 @@
         <v>1</v>
       </c>
       <c r="AH44">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="45" spans="1:34">
@@ -5539,7 +5575,7 @@
         <v>1</v>
       </c>
       <c r="AH45">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="46" spans="1:34">
@@ -5643,7 +5679,7 @@
         <v>1</v>
       </c>
       <c r="AH46">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="47" spans="1:34">
@@ -5747,7 +5783,7 @@
         <v>1</v>
       </c>
       <c r="AH47">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="48" spans="1:34">
@@ -5851,7 +5887,7 @@
         <v>1</v>
       </c>
       <c r="AH48">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="49" spans="1:34">
@@ -5955,7 +5991,7 @@
         <v>1</v>
       </c>
       <c r="AH49">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="50" spans="1:34">
@@ -6059,7 +6095,7 @@
         <v>1</v>
       </c>
       <c r="AH50">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="51" spans="1:34">
@@ -6163,7 +6199,7 @@
         <v>1</v>
       </c>
       <c r="AH51">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="52" spans="1:34">
@@ -6267,7 +6303,7 @@
         <v>1</v>
       </c>
       <c r="AH52">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="53" spans="1:34">
@@ -6371,7 +6407,7 @@
         <v>1</v>
       </c>
       <c r="AH53">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="54" spans="1:34">
@@ -6475,7 +6511,7 @@
         <v>1</v>
       </c>
       <c r="AH54">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="55" spans="1:34">
@@ -6579,7 +6615,7 @@
         <v>1</v>
       </c>
       <c r="AH55">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="56" spans="1:34">
@@ -6683,7 +6719,7 @@
         <v>1</v>
       </c>
       <c r="AH56">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="57" spans="1:34">
@@ -6787,7 +6823,7 @@
         <v>1</v>
       </c>
       <c r="AH57">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="58" spans="1:34">
@@ -6891,7 +6927,7 @@
         <v>1</v>
       </c>
       <c r="AH58">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="59" spans="1:34">
@@ -6995,7 +7031,7 @@
         <v>1</v>
       </c>
       <c r="AH59">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="60" spans="1:34">
@@ -7099,7 +7135,7 @@
         <v>1</v>
       </c>
       <c r="AH60">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="61" spans="1:34">
@@ -7203,7 +7239,7 @@
         <v>1</v>
       </c>
       <c r="AH61">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="62" spans="1:34">
@@ -7307,7 +7343,7 @@
         <v>1</v>
       </c>
       <c r="AH62">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="63" spans="1:34">
@@ -7411,7 +7447,7 @@
         <v>1</v>
       </c>
       <c r="AH63">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="64" spans="1:34">
@@ -7515,7 +7551,7 @@
         <v>1</v>
       </c>
       <c r="AH64">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="65" spans="1:34">
@@ -7619,7 +7655,7 @@
         <v>1</v>
       </c>
       <c r="AH65">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="66" spans="1:34">
@@ -7723,7 +7759,7 @@
         <v>1</v>
       </c>
       <c r="AH66">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="67" spans="1:34">
@@ -7827,7 +7863,7 @@
         <v>1</v>
       </c>
       <c r="AH67">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="68" spans="1:34">
@@ -7931,7 +7967,7 @@
         <v>1</v>
       </c>
       <c r="AH68">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="69" spans="1:34">
@@ -8035,7 +8071,7 @@
         <v>1</v>
       </c>
       <c r="AH69">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="70" spans="1:34">
@@ -8139,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="AH70">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="71" spans="1:34">
@@ -8243,7 +8279,7 @@
         <v>1</v>
       </c>
       <c r="AH71">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="72" spans="1:34">
@@ -8347,7 +8383,7 @@
         <v>1</v>
       </c>
       <c r="AH72">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="73" spans="1:34">
@@ -8451,7 +8487,7 @@
         <v>1</v>
       </c>
       <c r="AH73">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="74" spans="1:34">
@@ -8555,7 +8591,7 @@
         <v>1</v>
       </c>
       <c r="AH74">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="75" spans="1:34">
@@ -8659,7 +8695,7 @@
         <v>1</v>
       </c>
       <c r="AH75">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="76" spans="1:34">
@@ -8763,7 +8799,7 @@
         <v>1</v>
       </c>
       <c r="AH76">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="77" spans="1:34">
@@ -8867,7 +8903,7 @@
         <v>1</v>
       </c>
       <c r="AH77">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="78" spans="1:34">
@@ -8971,7 +9007,7 @@
         <v>1</v>
       </c>
       <c r="AH78">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="79" spans="1:34">
@@ -9075,7 +9111,7 @@
         <v>1</v>
       </c>
       <c r="AH79">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="80" spans="1:34">
@@ -9179,7 +9215,7 @@
         <v>1</v>
       </c>
       <c r="AH80">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="81" spans="1:34">
@@ -9283,7 +9319,7 @@
         <v>1</v>
       </c>
       <c r="AH81">
-        <v>0.728021978023077</v>
+        <v>0.7053571428583334</v>
       </c>
     </row>
     <row r="82" spans="1:34">
@@ -9387,7 +9423,7 @@
         <v>1</v>
       </c>
       <c r="AH82">
-        <v>0.728021978023077</v>
+        <v>0.7053571428583334</v>
       </c>
     </row>
     <row r="83" spans="1:34">
@@ -9491,7 +9527,7 @@
         <v>1</v>
       </c>
       <c r="AH83">
-        <v>0.728021978023077</v>
+        <v>0.7053571428583334</v>
       </c>
     </row>
     <row r="84" spans="1:34">
@@ -9595,7 +9631,7 @@
         <v>1</v>
       </c>
       <c r="AH84">
-        <v>0.728021978023077</v>
+        <v>0.7053571428583334</v>
       </c>
     </row>
     <row r="85" spans="1:34">
@@ -9699,7 +9735,7 @@
         <v>1</v>
       </c>
       <c r="AH85">
-        <v>0.728021978023077</v>
+        <v>0.7053571428583334</v>
       </c>
     </row>
     <row r="86" spans="1:34">
@@ -9803,7 +9839,7 @@
         <v>1</v>
       </c>
       <c r="AH86">
-        <v>0.728021978023077</v>
+        <v>0.7053571428583334</v>
       </c>
     </row>
     <row r="87" spans="1:34">
@@ -9907,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="AH87">
-        <v>0.728021978023077</v>
+        <v>0.7053571428583334</v>
       </c>
     </row>
     <row r="88" spans="1:34">
@@ -10011,7 +10047,7 @@
         <v>0</v>
       </c>
       <c r="AH88">
-        <v>0.6831501831538461</v>
+        <v>0.6567460317499999</v>
       </c>
     </row>
     <row r="89" spans="1:34">
@@ -10115,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="AH89">
-        <v>0.6831501831538461</v>
+        <v>0.6567460317499999</v>
       </c>
     </row>
     <row r="90" spans="1:34">
@@ -10219,7 +10255,7 @@
         <v>0</v>
       </c>
       <c r="AH90">
-        <v>0.6831501831538461</v>
+        <v>0.6567460317499999</v>
       </c>
     </row>
     <row r="91" spans="1:34">
@@ -10323,7 +10359,7 @@
         <v>0</v>
       </c>
       <c r="AH91">
-        <v>0.6831501831538461</v>
+        <v>0.6567460317499999</v>
       </c>
     </row>
     <row r="92" spans="1:34">
@@ -10427,7 +10463,7 @@
         <v>0</v>
       </c>
       <c r="AH92">
-        <v>0.6831501831538461</v>
+        <v>0.6567460317499999</v>
       </c>
     </row>
     <row r="93" spans="1:34">
@@ -10531,7 +10567,7 @@
         <v>0</v>
       </c>
       <c r="AH93">
-        <v>0.6831501831538461</v>
+        <v>0.6567460317499999</v>
       </c>
     </row>
     <row r="94" spans="1:34">
@@ -10635,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="AH94">
-        <v>0.6831501831538461</v>
+        <v>0.6567460317499999</v>
       </c>
     </row>
     <row r="95" spans="1:34">
@@ -10739,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="AH95">
-        <v>0.6831501831538461</v>
+        <v>0.6567460317499999</v>
       </c>
     </row>
     <row r="96" spans="1:34">
@@ -10843,7 +10879,7 @@
         <v>0</v>
       </c>
       <c r="AH96">
-        <v>0.6831501831538461</v>
+        <v>0.6567460317499999</v>
       </c>
     </row>
     <row r="97" spans="1:34">
@@ -10947,7 +10983,7 @@
         <v>0</v>
       </c>
       <c r="AH97">
-        <v>0.6831501831538461</v>
+        <v>0.6567460317499999</v>
       </c>
     </row>
     <row r="98" spans="1:34">
@@ -11051,7 +11087,7 @@
         <v>0</v>
       </c>
       <c r="AH98">
-        <v>0.6831501831538461</v>
+        <v>0.6567460317499999</v>
       </c>
     </row>
     <row r="99" spans="1:34">
@@ -11155,7 +11191,7 @@
         <v>0</v>
       </c>
       <c r="AH99">
-        <v>0.6831501831538461</v>
+        <v>0.6567460317499999</v>
       </c>
     </row>
     <row r="100" spans="1:34">
@@ -11259,7 +11295,7 @@
         <v>0</v>
       </c>
       <c r="AH100">
-        <v>0.6831501831538461</v>
+        <v>0.6567460317499999</v>
       </c>
     </row>
     <row r="101" spans="1:34">
@@ -11363,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="AH101">
-        <v>0.6831501831538461</v>
+        <v>0.6567460317499999</v>
       </c>
     </row>
     <row r="102" spans="1:34">
@@ -11467,7 +11503,7 @@
         <v>0</v>
       </c>
       <c r="AH102">
-        <v>0.5576923076846154</v>
+        <v>0.520833333325</v>
       </c>
     </row>
     <row r="103" spans="1:34">
@@ -11571,7 +11607,7 @@
         <v>0</v>
       </c>
       <c r="AH103">
-        <v>0.5576923076846154</v>
+        <v>0.520833333325</v>
       </c>
     </row>
     <row r="104" spans="1:34">
@@ -11675,7 +11711,7 @@
         <v>0</v>
       </c>
       <c r="AH104">
-        <v>0.5576923076846154</v>
+        <v>0.520833333325</v>
       </c>
     </row>
     <row r="105" spans="1:34">
@@ -11779,7 +11815,7 @@
         <v>0</v>
       </c>
       <c r="AH105">
-        <v>0.5576923076846154</v>
+        <v>0.520833333325</v>
       </c>
     </row>
     <row r="106" spans="1:34">
@@ -11883,7 +11919,7 @@
         <v>0</v>
       </c>
       <c r="AH106">
-        <v>0.5576923076846154</v>
+        <v>0.520833333325</v>
       </c>
     </row>
     <row r="107" spans="1:34">
@@ -11987,7 +12023,7 @@
         <v>0</v>
       </c>
       <c r="AH107">
-        <v>0.5576923076846154</v>
+        <v>0.520833333325</v>
       </c>
     </row>
     <row r="108" spans="1:34">
@@ -12091,7 +12127,7 @@
         <v>0</v>
       </c>
       <c r="AH108">
-        <v>0.5576923076846154</v>
+        <v>0.520833333325</v>
       </c>
     </row>
     <row r="109" spans="1:34">
@@ -12195,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="AH109">
-        <v>0.5576923076846154</v>
+        <v>0.520833333325</v>
       </c>
     </row>
     <row r="110" spans="1:34">
@@ -12299,7 +12335,7 @@
         <v>0</v>
       </c>
       <c r="AH110">
-        <v>0.5576923076846154</v>
+        <v>0.520833333325</v>
       </c>
     </row>
     <row r="111" spans="1:34">
@@ -12403,7 +12439,7 @@
         <v>0</v>
       </c>
       <c r="AH111">
-        <v>0.5576923076846154</v>
+        <v>0.520833333325</v>
       </c>
     </row>
     <row r="112" spans="1:34">
@@ -12507,7 +12543,7 @@
         <v>0</v>
       </c>
       <c r="AH112">
-        <v>0.5576923076846154</v>
+        <v>0.520833333325</v>
       </c>
     </row>
     <row r="113" spans="1:34">
@@ -12611,7 +12647,7 @@
         <v>0</v>
       </c>
       <c r="AH113">
-        <v>0.5576923076846154</v>
+        <v>0.520833333325</v>
       </c>
     </row>
     <row r="114" spans="1:34">
@@ -12715,7 +12751,7 @@
         <v>0</v>
       </c>
       <c r="AH114">
-        <v>0.5576923076846154</v>
+        <v>0.520833333325</v>
       </c>
     </row>
     <row r="115" spans="1:34">
@@ -12819,7 +12855,7 @@
         <v>0</v>
       </c>
       <c r="AH115">
-        <v>0.5576923076846154</v>
+        <v>0.520833333325</v>
       </c>
     </row>
     <row r="116" spans="1:34">
@@ -12923,7 +12959,7 @@
         <v>0</v>
       </c>
       <c r="AH116">
-        <v>0.3269230769230769</v>
+        <v>0.2708333333333333</v>
       </c>
     </row>
     <row r="117" spans="1:34">
@@ -13027,7 +13063,7 @@
         <v>0</v>
       </c>
       <c r="AH117">
-        <v>0.3269230769230769</v>
+        <v>0.2708333333333333</v>
       </c>
     </row>
     <row r="118" spans="1:34">
@@ -13131,7 +13167,7 @@
         <v>0</v>
       </c>
       <c r="AH118">
-        <v>0.3269230769230769</v>
+        <v>0.2708333333333333</v>
       </c>
     </row>
     <row r="119" spans="1:34">
@@ -13235,7 +13271,7 @@
         <v>0</v>
       </c>
       <c r="AH119">
-        <v>0.3269230769230769</v>
+        <v>0.2708333333333333</v>
       </c>
     </row>
     <row r="120" spans="1:34">
@@ -13339,7 +13375,7 @@
         <v>0</v>
       </c>
       <c r="AH120">
-        <v>0.3269230769230769</v>
+        <v>0.2708333333333333</v>
       </c>
     </row>
     <row r="121" spans="1:34">
@@ -13443,7 +13479,7 @@
         <v>0</v>
       </c>
       <c r="AH121">
-        <v>0.3269230769230769</v>
+        <v>0.2708333333333333</v>
       </c>
     </row>
     <row r="122" spans="1:34">
@@ -13547,7 +13583,7 @@
         <v>0</v>
       </c>
       <c r="AH122">
-        <v>0.3269230769230769</v>
+        <v>0.2708333333333333</v>
       </c>
     </row>
     <row r="123" spans="1:34">
@@ -13651,7 +13687,7 @@
         <v>0</v>
       </c>
       <c r="AH123">
-        <v>0.3269230769230769</v>
+        <v>0.2708333333333333</v>
       </c>
     </row>
     <row r="124" spans="1:34">
@@ -13755,7 +13791,7 @@
         <v>0</v>
       </c>
       <c r="AH124">
-        <v>0.3269230769230769</v>
+        <v>0.2708333333333333</v>
       </c>
     </row>
     <row r="125" spans="1:34">
@@ -13859,7 +13895,7 @@
         <v>0</v>
       </c>
       <c r="AH125">
-        <v>0.3269230769230769</v>
+        <v>0.2708333333333333</v>
       </c>
     </row>
     <row r="126" spans="1:34">
@@ -13963,7 +13999,7 @@
         <v>0</v>
       </c>
       <c r="AH126">
-        <v>0.3269230769230769</v>
+        <v>0.2708333333333333</v>
       </c>
     </row>
     <row r="127" spans="1:34">
@@ -14067,7 +14103,7 @@
         <v>0</v>
       </c>
       <c r="AH127">
-        <v>0.3269230769230769</v>
+        <v>0.2708333333333333</v>
       </c>
     </row>
     <row r="128" spans="1:34">
@@ -14171,7 +14207,7 @@
         <v>0</v>
       </c>
       <c r="AH128">
-        <v>0.3269230769230769</v>
+        <v>0.2708333333333333</v>
       </c>
     </row>
     <row r="129" spans="1:34">
@@ -14275,7 +14311,7 @@
         <v>0</v>
       </c>
       <c r="AH129">
-        <v>0.3269230769230769</v>
+        <v>0.2708333333333333</v>
       </c>
     </row>
     <row r="130" spans="1:34">
@@ -14379,7 +14415,7 @@
         <v>0</v>
       </c>
       <c r="AH130">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="131" spans="1:34">
@@ -14483,7 +14519,7 @@
         <v>0</v>
       </c>
       <c r="AH131">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="132" spans="1:34">
@@ -14587,7 +14623,7 @@
         <v>0</v>
       </c>
       <c r="AH132">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="133" spans="1:34">
@@ -14691,7 +14727,7 @@
         <v>0</v>
       </c>
       <c r="AH133">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="134" spans="1:34">
@@ -14795,7 +14831,7 @@
         <v>0</v>
       </c>
       <c r="AH134">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="135" spans="1:34">
@@ -14899,7 +14935,7 @@
         <v>0</v>
       </c>
       <c r="AH135">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="136" spans="1:34">
@@ -15003,7 +15039,7 @@
         <v>0</v>
       </c>
       <c r="AH136">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="137" spans="1:34">
@@ -15107,7 +15143,7 @@
         <v>0</v>
       </c>
       <c r="AH137">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="138" spans="1:34">
@@ -15211,7 +15247,7 @@
         <v>0</v>
       </c>
       <c r="AH138">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="139" spans="1:34">
@@ -15315,7 +15351,7 @@
         <v>0</v>
       </c>
       <c r="AH139">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="140" spans="1:34">
@@ -15419,7 +15455,7 @@
         <v>0</v>
       </c>
       <c r="AH140">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="141" spans="1:34">
@@ -15523,7 +15559,7 @@
         <v>0</v>
       </c>
       <c r="AH141">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="142" spans="1:34">
@@ -15627,7 +15663,7 @@
         <v>0</v>
       </c>
       <c r="AH142">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="143" spans="1:34">
@@ -15731,7 +15767,7 @@
         <v>0</v>
       </c>
       <c r="AH143">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="144" spans="1:34">
@@ -15835,7 +15871,7 @@
         <v>0</v>
       </c>
       <c r="AH144">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="145" spans="1:34">
@@ -15939,7 +15975,7 @@
         <v>0</v>
       </c>
       <c r="AH145">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="146" spans="1:34">
@@ -16043,7 +16079,7 @@
         <v>0</v>
       </c>
       <c r="AH146">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="147" spans="1:34">
@@ -16147,7 +16183,7 @@
         <v>0</v>
       </c>
       <c r="AH147">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="148" spans="1:34">
@@ -16251,7 +16287,7 @@
         <v>0</v>
       </c>
       <c r="AH148">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="149" spans="1:34">
@@ -16355,7 +16391,7 @@
         <v>0</v>
       </c>
       <c r="AH149">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="150" spans="1:34">
@@ -16459,7 +16495,7 @@
         <v>0</v>
       </c>
       <c r="AH150">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="151" spans="1:34">
@@ -16563,7 +16599,7 @@
         <v>0</v>
       </c>
       <c r="AH151">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="152" spans="1:34">
@@ -16667,7 +16703,7 @@
         <v>0</v>
       </c>
       <c r="AH152">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="153" spans="1:34">
@@ -16771,7 +16807,7 @@
         <v>0</v>
       </c>
       <c r="AH153">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="154" spans="1:34">
@@ -16875,7 +16911,7 @@
         <v>0</v>
       </c>
       <c r="AH154">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="155" spans="1:34">
@@ -16979,7 +17015,7 @@
         <v>0</v>
       </c>
       <c r="AH155">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="156" spans="1:34">
@@ -17083,7 +17119,7 @@
         <v>0</v>
       </c>
       <c r="AH156">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="157" spans="1:34">
@@ -17187,7 +17223,7 @@
         <v>0</v>
       </c>
       <c r="AH157">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="158" spans="1:34">
@@ -17291,7 +17327,7 @@
         <v>0</v>
       </c>
       <c r="AH158">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="159" spans="1:34">
@@ -17395,7 +17431,7 @@
         <v>0</v>
       </c>
       <c r="AH159">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="160" spans="1:34">
@@ -17499,7 +17535,7 @@
         <v>0</v>
       </c>
       <c r="AH160">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="161" spans="1:34">
@@ -17603,7 +17639,7 @@
         <v>0</v>
       </c>
       <c r="AH161">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="162" spans="1:34">
@@ -17707,7 +17743,7 @@
         <v>0</v>
       </c>
       <c r="AH162">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="163" spans="1:34">
@@ -17811,7 +17847,7 @@
         <v>0</v>
       </c>
       <c r="AH163">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="164" spans="1:34">
@@ -17915,7 +17951,7 @@
         <v>0</v>
       </c>
       <c r="AH164">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="165" spans="1:34">
@@ -18019,7 +18055,7 @@
         <v>0</v>
       </c>
       <c r="AH165">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="166" spans="1:34">
@@ -18123,7 +18159,7 @@
         <v>0</v>
       </c>
       <c r="AH166">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="167" spans="1:34">
@@ -18227,7 +18263,7 @@
         <v>0</v>
       </c>
       <c r="AH167">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="168" spans="1:34">
@@ -18331,7 +18367,7 @@
         <v>0</v>
       </c>
       <c r="AH168">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="169" spans="1:34">
@@ -18435,7 +18471,7 @@
         <v>0</v>
       </c>
       <c r="AH169">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="170" spans="1:34">
@@ -18539,7 +18575,7 @@
         <v>0</v>
       </c>
       <c r="AH170">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="171" spans="1:34">
@@ -18643,7 +18679,7 @@
         <v>0</v>
       </c>
       <c r="AH171">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="172" spans="1:34">
@@ -18747,7 +18783,7 @@
         <v>0</v>
       </c>
       <c r="AH172">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="173" spans="1:34">
@@ -18851,7 +18887,7 @@
         <v>0</v>
       </c>
       <c r="AH173">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="174" spans="1:34">
@@ -18955,7 +18991,7 @@
         <v>0</v>
       </c>
       <c r="AH174">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="175" spans="1:34">
@@ -19059,7 +19095,7 @@
         <v>0</v>
       </c>
       <c r="AH175">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="176" spans="1:34">
@@ -19163,7 +19199,7 @@
         <v>0</v>
       </c>
       <c r="AH176">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="177" spans="1:34">
@@ -19267,7 +19303,7 @@
         <v>0</v>
       </c>
       <c r="AH177">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="178" spans="1:34">
@@ -19371,7 +19407,7 @@
         <v>0</v>
       </c>
       <c r="AH178">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="179" spans="1:34">
@@ -19475,7 +19511,7 @@
         <v>0</v>
       </c>
       <c r="AH179">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="180" spans="1:34">
@@ -19579,7 +19615,7 @@
         <v>0</v>
       </c>
       <c r="AH180">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="181" spans="1:34">
@@ -19683,7 +19719,7 @@
         <v>0</v>
       </c>
       <c r="AH181">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="182" spans="1:34">
@@ -19787,7 +19823,7 @@
         <v>0</v>
       </c>
       <c r="AH182">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="183" spans="1:34">
@@ -19891,7 +19927,7 @@
         <v>0</v>
       </c>
       <c r="AH183">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="184" spans="1:34">
@@ -19995,7 +20031,7 @@
         <v>0</v>
       </c>
       <c r="AH184">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="185" spans="1:34">
@@ -20099,7 +20135,7 @@
         <v>0</v>
       </c>
       <c r="AH185">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="186" spans="1:34">
@@ -20203,7 +20239,7 @@
         <v>0</v>
       </c>
       <c r="AH186">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="187" spans="1:34">
@@ -20307,7 +20343,7 @@
         <v>0</v>
       </c>
       <c r="AH187">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="188" spans="1:34">
@@ -20411,7 +20447,7 @@
         <v>0</v>
       </c>
       <c r="AH188">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="189" spans="1:34">
@@ -20515,7 +20551,7 @@
         <v>0</v>
       </c>
       <c r="AH189">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="190" spans="1:34">
@@ -20619,7 +20655,7 @@
         <v>0</v>
       </c>
       <c r="AH190">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="191" spans="1:34">
@@ -20723,7 +20759,7 @@
         <v>0</v>
       </c>
       <c r="AH191">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="192" spans="1:34">
@@ -20827,7 +20863,7 @@
         <v>0</v>
       </c>
       <c r="AH192">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="193" spans="1:34">
@@ -20931,7 +20967,7 @@
         <v>0</v>
       </c>
       <c r="AH193">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="194" spans="1:34">
@@ -21035,7 +21071,7 @@
         <v>0</v>
       </c>
       <c r="AH194">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="195" spans="1:34">
@@ -21139,7 +21175,7 @@
         <v>0</v>
       </c>
       <c r="AH195">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="196" spans="1:34">
@@ -21243,7 +21279,7 @@
         <v>0</v>
       </c>
       <c r="AH196">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="197" spans="1:34">
@@ -21347,7 +21383,7 @@
         <v>0</v>
       </c>
       <c r="AH197">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="198" spans="1:34">
@@ -21451,7 +21487,7 @@
         <v>0</v>
       </c>
       <c r="AH198">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="199" spans="1:34">
@@ -21555,7 +21591,7 @@
         <v>0</v>
       </c>
       <c r="AH199">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="200" spans="1:34">
@@ -21659,7 +21695,7 @@
         <v>0</v>
       </c>
       <c r="AH200">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="201" spans="1:34">
@@ -21763,7 +21799,7 @@
         <v>0</v>
       </c>
       <c r="AH201">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="202" spans="1:34">
@@ -21867,7 +21903,7 @@
         <v>0</v>
       </c>
       <c r="AH202">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="203" spans="1:34">
@@ -21971,7 +22007,7 @@
         <v>0</v>
       </c>
       <c r="AH203">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="204" spans="1:34">
@@ -22075,7 +22111,7 @@
         <v>0</v>
       </c>
       <c r="AH204">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="205" spans="1:34">
@@ -22179,7 +22215,7 @@
         <v>0</v>
       </c>
       <c r="AH205">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="206" spans="1:34">
@@ -22283,7 +22319,7 @@
         <v>0</v>
       </c>
       <c r="AH206">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="207" spans="1:34">
@@ -22387,7 +22423,7 @@
         <v>0</v>
       </c>
       <c r="AH207">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="208" spans="1:34">
@@ -22491,7 +22527,7 @@
         <v>0</v>
       </c>
       <c r="AH208">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="209" spans="1:34">
@@ -22595,7 +22631,7 @@
         <v>0</v>
       </c>
       <c r="AH209">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="210" spans="1:34">
@@ -22699,7 +22735,7 @@
         <v>0</v>
       </c>
       <c r="AH210">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="211" spans="1:34">
@@ -22803,7 +22839,7 @@
         <v>0</v>
       </c>
       <c r="AH211">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="212" spans="1:34">
@@ -22907,7 +22943,7 @@
         <v>0</v>
       </c>
       <c r="AH212">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="213" spans="1:34">
@@ -23011,7 +23047,7 @@
         <v>0</v>
       </c>
       <c r="AH213">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="214" spans="1:34">
@@ -23115,7 +23151,7 @@
         <v>0</v>
       </c>
       <c r="AH214">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="215" spans="1:34">
@@ -23219,7 +23255,7 @@
         <v>0</v>
       </c>
       <c r="AH215">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="216" spans="1:34">
@@ -23323,7 +23359,7 @@
         <v>0</v>
       </c>
       <c r="AH216">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="217" spans="1:34">
@@ -23427,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="AH217">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="218" spans="1:34">
@@ -23531,7 +23567,7 @@
         <v>0</v>
       </c>
       <c r="AH218">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="219" spans="1:34">
@@ -23635,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="AH219">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="220" spans="1:34">
@@ -23739,7 +23775,7 @@
         <v>0</v>
       </c>
       <c r="AH220">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="221" spans="1:34">
@@ -23843,7 +23879,1255 @@
         <v>0</v>
       </c>
       <c r="AH221">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="222" spans="1:34">
+      <c r="A222" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>0</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+      <c r="Y222">
+        <v>0</v>
+      </c>
+      <c r="Z222">
+        <v>0</v>
+      </c>
+      <c r="AA222">
+        <v>0</v>
+      </c>
+      <c r="AB222">
+        <v>0</v>
+      </c>
+      <c r="AC222">
+        <v>1</v>
+      </c>
+      <c r="AD222">
+        <v>0</v>
+      </c>
+      <c r="AE222">
+        <v>0</v>
+      </c>
+      <c r="AF222">
+        <v>0</v>
+      </c>
+      <c r="AG222">
+        <v>0</v>
+      </c>
+      <c r="AH222">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="223" spans="1:34">
+      <c r="A223" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>0</v>
+      </c>
+      <c r="V223">
+        <v>0</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
+      <c r="Y223">
+        <v>0</v>
+      </c>
+      <c r="Z223">
+        <v>0</v>
+      </c>
+      <c r="AA223">
+        <v>0</v>
+      </c>
+      <c r="AB223">
+        <v>0</v>
+      </c>
+      <c r="AC223">
+        <v>1</v>
+      </c>
+      <c r="AD223">
+        <v>0</v>
+      </c>
+      <c r="AE223">
+        <v>0</v>
+      </c>
+      <c r="AF223">
+        <v>0</v>
+      </c>
+      <c r="AG223">
+        <v>0</v>
+      </c>
+      <c r="AH223">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="224" spans="1:34">
+      <c r="A224" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>0</v>
+      </c>
+      <c r="Z224">
+        <v>0</v>
+      </c>
+      <c r="AA224">
+        <v>0</v>
+      </c>
+      <c r="AB224">
+        <v>0</v>
+      </c>
+      <c r="AC224">
+        <v>1</v>
+      </c>
+      <c r="AD224">
+        <v>0</v>
+      </c>
+      <c r="AE224">
+        <v>0</v>
+      </c>
+      <c r="AF224">
+        <v>0</v>
+      </c>
+      <c r="AG224">
+        <v>0</v>
+      </c>
+      <c r="AH224">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="225" spans="1:34">
+      <c r="A225" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>0</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
+        <v>0</v>
+      </c>
+      <c r="AB225">
+        <v>0</v>
+      </c>
+      <c r="AC225">
+        <v>1</v>
+      </c>
+      <c r="AD225">
+        <v>0</v>
+      </c>
+      <c r="AE225">
+        <v>0</v>
+      </c>
+      <c r="AF225">
+        <v>0</v>
+      </c>
+      <c r="AG225">
+        <v>0</v>
+      </c>
+      <c r="AH225">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="226" spans="1:34">
+      <c r="A226" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>0</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+      <c r="Z226">
+        <v>0</v>
+      </c>
+      <c r="AA226">
+        <v>0</v>
+      </c>
+      <c r="AB226">
+        <v>0</v>
+      </c>
+      <c r="AC226">
+        <v>1</v>
+      </c>
+      <c r="AD226">
+        <v>0</v>
+      </c>
+      <c r="AE226">
+        <v>0</v>
+      </c>
+      <c r="AF226">
+        <v>0</v>
+      </c>
+      <c r="AG226">
+        <v>0</v>
+      </c>
+      <c r="AH226">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="227" spans="1:34">
+      <c r="A227" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>0</v>
+      </c>
+      <c r="V227">
+        <v>0</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
+      <c r="Z227">
+        <v>0</v>
+      </c>
+      <c r="AA227">
+        <v>0</v>
+      </c>
+      <c r="AB227">
+        <v>0</v>
+      </c>
+      <c r="AC227">
+        <v>1</v>
+      </c>
+      <c r="AD227">
+        <v>0</v>
+      </c>
+      <c r="AE227">
+        <v>0</v>
+      </c>
+      <c r="AF227">
+        <v>0</v>
+      </c>
+      <c r="AG227">
+        <v>0</v>
+      </c>
+      <c r="AH227">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="228" spans="1:34">
+      <c r="A228" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <v>0</v>
+      </c>
+      <c r="V228">
+        <v>0</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
+      <c r="AA228">
+        <v>0</v>
+      </c>
+      <c r="AB228">
+        <v>0</v>
+      </c>
+      <c r="AC228">
+        <v>1</v>
+      </c>
+      <c r="AD228">
+        <v>0</v>
+      </c>
+      <c r="AE228">
+        <v>0</v>
+      </c>
+      <c r="AF228">
+        <v>0</v>
+      </c>
+      <c r="AG228">
+        <v>0</v>
+      </c>
+      <c r="AH228">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="229" spans="1:34">
+      <c r="A229" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <v>0</v>
+      </c>
+      <c r="V229">
+        <v>0</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+      <c r="Z229">
+        <v>0</v>
+      </c>
+      <c r="AA229">
+        <v>0</v>
+      </c>
+      <c r="AB229">
+        <v>0</v>
+      </c>
+      <c r="AC229">
+        <v>1</v>
+      </c>
+      <c r="AD229">
+        <v>0</v>
+      </c>
+      <c r="AE229">
+        <v>0</v>
+      </c>
+      <c r="AF229">
+        <v>0</v>
+      </c>
+      <c r="AG229">
+        <v>0</v>
+      </c>
+      <c r="AH229">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="230" spans="1:34">
+      <c r="A230" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>0</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>0</v>
+      </c>
+      <c r="AB230">
+        <v>0</v>
+      </c>
+      <c r="AC230">
+        <v>1</v>
+      </c>
+      <c r="AD230">
+        <v>0</v>
+      </c>
+      <c r="AE230">
+        <v>0</v>
+      </c>
+      <c r="AF230">
+        <v>0</v>
+      </c>
+      <c r="AG230">
+        <v>0</v>
+      </c>
+      <c r="AH230">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="231" spans="1:34">
+      <c r="A231" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>0</v>
+      </c>
+      <c r="V231">
+        <v>0</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>0</v>
+      </c>
+      <c r="AA231">
+        <v>0</v>
+      </c>
+      <c r="AB231">
+        <v>0</v>
+      </c>
+      <c r="AC231">
+        <v>1</v>
+      </c>
+      <c r="AD231">
+        <v>0</v>
+      </c>
+      <c r="AE231">
+        <v>0</v>
+      </c>
+      <c r="AF231">
+        <v>0</v>
+      </c>
+      <c r="AG231">
+        <v>0</v>
+      </c>
+      <c r="AH231">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="232" spans="1:34">
+      <c r="A232" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>0</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>0</v>
+      </c>
+      <c r="AA232">
+        <v>0</v>
+      </c>
+      <c r="AB232">
+        <v>0</v>
+      </c>
+      <c r="AC232">
+        <v>1</v>
+      </c>
+      <c r="AD232">
+        <v>0</v>
+      </c>
+      <c r="AE232">
+        <v>0</v>
+      </c>
+      <c r="AF232">
+        <v>0</v>
+      </c>
+      <c r="AG232">
+        <v>0</v>
+      </c>
+      <c r="AH232">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="233" spans="1:34">
+      <c r="A233" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>0</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
+      <c r="AA233">
+        <v>0</v>
+      </c>
+      <c r="AB233">
+        <v>0</v>
+      </c>
+      <c r="AC233">
+        <v>1</v>
+      </c>
+      <c r="AD233">
+        <v>0</v>
+      </c>
+      <c r="AE233">
+        <v>0</v>
+      </c>
+      <c r="AF233">
+        <v>0</v>
+      </c>
+      <c r="AG233">
+        <v>0</v>
+      </c>
+      <c r="AH233">
+        <v>0.1666666666666667</v>
       </c>
     </row>
   </sheetData>
